--- a/EL/noscale.400g.500b_MODEL_CONDITION_FNRATE_ASTRAL.xlsx
+++ b/EL/noscale.400g.500b_MODEL_CONDITION_FNRATE_ASTRAL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="7">
   <si>
     <t>MODEL_CONDITION</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>TAXON</t>
+  </si>
+  <si>
+    <t>MODELCONDITION</t>
   </si>
   <si>
     <t>GENE</t>
@@ -389,426 +392,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.0588235294117647</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.0294117647058824</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.0588235294117647</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>0.0294117647058824</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>0.0294117647058824</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>0.0294117647058824</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
         <v>0.0294117647058824</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>0.0294117647058824</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
         <v>0.0294117647058824</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
         <v>0.0294117647058824</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0.0294117647058824</v>
+      <c r="C21" t="s">
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
         <v>19</v>
       </c>
     </row>

--- a/EL/noscale.400g.500b_MODEL_CONDITION_FNRATE_ASTRAL.xlsx
+++ b/EL/noscale.400g.500b_MODEL_CONDITION_FNRATE_ASTRAL.xlsx
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -573,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
